--- a/Misc/02 Initial model vs Literature.xlsx
+++ b/Misc/02 Initial model vs Literature.xlsx
@@ -766,12 +766,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -779,17 +773,11 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
@@ -807,6 +795,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -990,11 +990,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84032896"/>
-        <c:axId val="84047744"/>
+        <c:axId val="56366208"/>
+        <c:axId val="56368512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84032896"/>
+        <c:axId val="56366208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,7 +1019,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.48832807570977976"/>
+              <c:x val="0.48832807570977993"/>
               <c:y val="0.82850121158173962"/>
             </c:manualLayout>
           </c:layout>
@@ -1060,14 +1060,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84047744"/>
+        <c:crossAx val="56368512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84047744"/>
+        <c:axId val="56368512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="34"/>
@@ -1131,7 +1131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84032896"/>
+        <c:crossAx val="56366208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1173,7 +1173,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1349,8 +1349,8 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="87884928"/>
-        <c:axId val="87886848"/>
+        <c:axId val="56412800"/>
+        <c:axId val="55771904"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1532,7 +1532,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87884928"/>
+        <c:axId val="56412800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1591,14 +1591,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87886848"/>
+        <c:crossAx val="55771904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87886848"/>
+        <c:axId val="55771904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4.5"/>
@@ -1662,7 +1662,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87884928"/>
+        <c:crossAx val="56412800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1704,7 +1704,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1798,7 +1798,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1818,7 +1818,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1853,7 +1853,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1871,7 +1871,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1906,7 +1906,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" val="0"/>
+              <a14:useLocalDpi xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3439,17 +3439,17 @@
       <c r="L72" s="9"/>
     </row>
     <row r="73" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="28"/>
-      <c r="D73" s="27" t="s">
+      <c r="C73" s="40"/>
+      <c r="D73" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E73" s="32"/>
+      <c r="E73" s="42"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -3459,10 +3459,10 @@
       <c r="L73" s="9"/>
     </row>
     <row r="74" spans="1:12" ht="15.75">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B74" s="36">
+      <c r="B74" s="32">
         <v>0.2</v>
       </c>
       <c r="C74" s="3">
@@ -3471,7 +3471,7 @@
       <c r="D74" s="4">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E74" s="33">
+      <c r="E74" s="30">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="F74" s="1"/>
@@ -3483,19 +3483,19 @@
       <c r="L74" s="9"/>
     </row>
     <row r="75" spans="1:12" ht="15.75">
-      <c r="A75" s="30" t="s">
+      <c r="A75" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="37">
+      <c r="B75" s="33">
         <v>0.01</v>
       </c>
-      <c r="C75" s="38">
+      <c r="C75" s="34">
         <v>0</v>
       </c>
-      <c r="D75" s="31">
+      <c r="D75" s="29">
         <v>7.8E-2</v>
       </c>
-      <c r="E75" s="34">
+      <c r="E75" s="31">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="F75" s="1"/>
@@ -3535,7 +3535,7 @@
       <c r="L77" s="9"/>
     </row>
     <row r="78" spans="1:12" ht="15.75">
-      <c r="A78" s="41" t="s">
+      <c r="A78" s="37" t="s">
         <v>73</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -3555,13 +3555,13 @@
       <c r="L78" s="9"/>
     </row>
     <row r="79" spans="1:12" ht="15.75">
-      <c r="A79" s="41" t="s">
+      <c r="A79" s="37" t="s">
         <v>74</v>
       </c>
       <c r="B79" s="1">
         <v>10</v>
       </c>
-      <c r="C79" s="29">
+      <c r="C79" s="27">
         <v>1</v>
       </c>
       <c r="D79" s="1"/>
@@ -3575,13 +3575,13 @@
       <c r="L79" s="9"/>
     </row>
     <row r="80" spans="1:12" ht="15.75">
-      <c r="A80" s="41" t="s">
+      <c r="A80" s="37" t="s">
         <v>75</v>
       </c>
       <c r="B80" s="1">
         <v>5.25</v>
       </c>
-      <c r="C80" s="29">
+      <c r="C80" s="27">
         <v>0.5</v>
       </c>
       <c r="D80" s="1"/>
@@ -3595,13 +3595,13 @@
       <c r="L80" s="9"/>
     </row>
     <row r="81" spans="1:12" ht="15.75">
-      <c r="A81" s="41" t="s">
+      <c r="A81" s="37" t="s">
         <v>76</v>
       </c>
       <c r="B81" s="1">
         <v>0.52</v>
       </c>
-      <c r="C81" s="29">
+      <c r="C81" s="27">
         <v>0.05</v>
       </c>
       <c r="D81" s="1"/>
@@ -3615,13 +3615,13 @@
       <c r="L81" s="9"/>
     </row>
     <row r="82" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A82" s="42" t="s">
+      <c r="A82" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B82" s="39">
+      <c r="B82" s="35">
         <v>0.1</v>
       </c>
-      <c r="C82" s="40">
+      <c r="C82" s="36">
         <v>0.01</v>
       </c>
       <c r="D82" s="10"/>
